--- a/GameDesign/天赋设计.xlsx
+++ b/GameDesign/天赋设计.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC6E234E-DDD4-4EA5-BC37-DDCDF99C9B11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7616605B-BDF4-4325-A68D-D8091ED0F80B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="66">
   <si>
     <t>战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -55,14 +55,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击有一定概率触发裂地击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>释放技能有一定概率不进入冷却CD</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>在生命值低于10%时,立即回复自身20%最大生命,并使自身造成伤害提升25%,持续6秒，120秒冷却时间</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -70,13 +62,219 @@
     <t>SkillIdAdd;62000009</t>
   </si>
   <si>
-    <t>受到攻击有20%概率对目标造成2秒眩晕,此效果20秒触发一次</t>
-  </si>
-  <si>
     <t>SkillIdAdd;62000012</t>
   </si>
   <si>
-    <t>放反</t>
+    <t>RolePropertyAdd;200103;0.05</t>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100402;0.05</t>
+  </si>
+  <si>
+    <t>RolePropertyAdd;100902;0.1</t>
+  </si>
+  <si>
+    <t>RolePropertyAdd;202103;0.05</t>
+  </si>
+  <si>
+    <t>RolePropertyAdd;200303;0.05</t>
+  </si>
+  <si>
+    <t>RolePropertyAdd;200903;0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SkillPropertyAdd;60000601,60000602,60000701,60000702;2;0.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰裂地</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对目标范围内的怪物造成250%攻击伤害+750点固定伤害</t>
+  </si>
+  <si>
+    <t>幻影跃击</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即跳跃至目标区域并对其怪物造成160%攻击伤害+750点固定伤害,并使目标眩晕2秒</t>
+  </si>
+  <si>
+    <t>旋舞之影</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>每秒对周围的怪物造成100%攻击伤害+300点固定伤害.持续4秒并使自身免疫怪物攻击</t>
+  </si>
+  <si>
+    <t>炎龙咆哮</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>立即对目标范围内的怪物造成225%攻击伤害+900点固定伤害</t>
+  </si>
+  <si>
+    <t>防反</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能</t>
+  </si>
+  <si>
+    <t>幻影跃击伤害提升30%,60%,100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋舞之影技能伤害提升15%,30%,45%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎龙咆哮会将目标防御和魔御降低20%,40%,60%,持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>旋影之舞的技能暴击概率提升10%,20%,30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎龙咆哮有30%/60%/100%概率眩晕目标1秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击永久提升1%/2%/3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>闪避上限永久提升1%/2%/3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度永久提升3%/6%/9%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能冷却时间降低1%/2%/3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>350,0.03|350,0.05</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈火奥义</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40点激活</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自身普攻伤害提升10%,20%,30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>前冲距离延长2码,4码,6码距离</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次闪避恢复自身最大血量的3%;每次闪避恢复自身最大血量的5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率永久提升5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>造成的伤害加成提升5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击有一定概率触发魔焰地裂</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂会对目标额外造成10%,20%,30%减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂</t>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击有一定概率将目标的防御将至0，持续5秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能时,有概率对命中的目标额外释放闪击技能,对目标额外造成200%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当生命降低50%时,自身受到的伤害降低50%,持续6秒   90秒冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>烈火魔焰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使自身的技能附带吸血,每次释放技能伤害可以恢复自身3%的生命</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>使用药剂恢复效果提升20%</t>
+  </si>
+  <si>
+    <t>413,0.2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有10%概率对目标造成150%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>释放技能有一定概率不进入冷却时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔焰地裂会对目标释放爆裂状态,3秒后对范围内造成200%爆炸伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>幻影跃击伤害提升冷却时间降低1秒/2秒/3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害降低1%/2%/3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有20%概率对目标造成1秒眩晕,此效果20秒触发一次</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击概率永久提升1%/2%/3%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能暴击概率提升1.5%,3%,4.5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害提升2%/4%/6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次暴击恢复自身生命的1%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>物理穿透和魔法穿透提升2%/4%/6%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>命中概率提升2%/4%/6%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -84,7 +282,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,32 +305,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="微软雅黑"/>
+      <name val="等线"/>
       <family val="2"/>
-      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="10"/>
+      <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -144,10 +343,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -158,15 +358,25 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="常规 8" xfId="1" xr:uid="{36AE05AC-C860-400E-88CE-EA616A611967}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -444,10 +654,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:J16"/>
+  <dimension ref="B1:O70"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+    <sheetView tabSelected="1" topLeftCell="B31" workbookViewId="0">
+      <selection activeCell="M43" sqref="M43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -457,12 +667,12 @@
     <col min="10" max="10" width="83.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -470,12 +680,12 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -484,82 +694,113 @@
         <v>2</v>
       </c>
       <c r="E4" s="1"/>
-      <c r="G4" s="2">
+      <c r="G4" s="1">
         <v>12</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>44</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="O4" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="G5" s="2">
+      <c r="G5" s="1">
         <v>24</v>
       </c>
       <c r="H5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="I5" s="3" t="s">
-        <v>10</v>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>7</v>
+      </c>
+      <c r="N5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O5" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>3</v>
       </c>
       <c r="E6" s="1"/>
-      <c r="G6" s="2">
+      <c r="G6" s="1">
         <v>36</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="I6" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>25</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O6" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E7" s="1"/>
-      <c r="G7" s="2">
+      <c r="G7" s="1">
         <v>48</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>3</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>55</v>
+      </c>
+      <c r="N7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O7" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-    </row>
-    <row r="9" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="2" t="s">
+      <c r="K9" s="6"/>
+    </row>
+    <row r="10" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
         <v>5</v>
       </c>
       <c r="C10" s="1">
@@ -569,13 +810,24 @@
         <f>C10*3</f>
         <v>9</v>
       </c>
-      <c r="E10" s="1"/>
-      <c r="G10" s="2" t="s">
+      <c r="G10" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="11" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="2" t="s">
+      <c r="H10" s="3">
+        <v>20031</v>
+      </c>
+      <c r="I10" s="3">
+        <v>3</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="1">
@@ -585,10 +837,15 @@
         <f>C11*3</f>
         <v>9</v>
       </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C12" s="1"/>
+      <c r="I11" s="1">
+        <v>3</v>
+      </c>
+      <c r="J11" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="K11" s="6"/>
+    </row>
+    <row r="12" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="D12" s="1">
         <f>D11+D10</f>
         <v>18</v>
@@ -597,26 +854,540 @@
         <f>D12*4</f>
         <v>72</v>
       </c>
-    </row>
-    <row r="13" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-    </row>
-    <row r="16" spans="2:10" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="I12" s="1">
+        <v>3</v>
+      </c>
+      <c r="J12" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K12" s="6" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="13" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K13" s="6"/>
+    </row>
+    <row r="14" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H14" s="3">
+        <v>10022</v>
+      </c>
+      <c r="I14" s="3">
+        <v>3</v>
+      </c>
+      <c r="J14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="L14" s="5"/>
+    </row>
+    <row r="15" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I15" s="1">
+        <v>3</v>
+      </c>
+      <c r="J15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="6"/>
+    </row>
+    <row r="16" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I16" s="1">
+        <v>3</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K16" s="6"/>
+    </row>
+    <row r="17" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K17" s="6"/>
+    </row>
+    <row r="18" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G18" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H18" s="3">
+        <v>20043</v>
+      </c>
+      <c r="I18" s="3">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="K18" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I19" s="1">
+        <v>3</v>
+      </c>
+      <c r="J19" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K19" s="6"/>
+    </row>
+    <row r="20" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="1">
+        <v>3</v>
+      </c>
+      <c r="J20" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="K20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K21" s="6"/>
+    </row>
+    <row r="22" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H22" s="3">
+        <v>10021</v>
+      </c>
+      <c r="I22" s="3">
+        <v>3</v>
+      </c>
+      <c r="J22" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="K22" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="K23" s="6"/>
+    </row>
+    <row r="24" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K24" s="6"/>
+    </row>
+    <row r="25" spans="2:15" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K25" s="6"/>
+    </row>
+    <row r="26" spans="2:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+      <c r="K26" s="7"/>
+    </row>
+    <row r="27" spans="2:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+      <c r="K27" s="7"/>
+    </row>
+    <row r="28" spans="2:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+      <c r="J28" s="1"/>
+      <c r="K28" s="7"/>
+    </row>
+    <row r="29" spans="2:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C29" s="1"/>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+      <c r="J29" s="1"/>
+      <c r="K29" s="7"/>
+    </row>
+    <row r="30" spans="2:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C30" s="1"/>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+      <c r="J30" s="1"/>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="G31" s="1">
+        <v>12</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="J31" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="N31" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="O31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E32" s="1"/>
+      <c r="G32" s="1">
+        <v>24</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J32" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="N32" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O32" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="33" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C33" s="1"/>
+      <c r="D33" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E33" s="1"/>
+      <c r="G33" s="1">
+        <v>36</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="J33" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="N33" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O33" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C34" s="1"/>
+      <c r="D34" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="1"/>
+      <c r="G34" s="1">
+        <v>48</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="J34" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="N34" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="O34" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="3:15" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+      <c r="G35" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="J35" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="36" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="J36" s="1"/>
+      <c r="K36" s="7"/>
+    </row>
+    <row r="37" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+      <c r="G37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H37" s="1">
+        <v>30051</v>
+      </c>
+      <c r="I37" s="1">
+        <v>42</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="K37" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+      <c r="G38" s="1"/>
+      <c r="J38" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K38" s="7"/>
+    </row>
+    <row r="39" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C39" s="1"/>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
+      <c r="G39" s="1"/>
+      <c r="J39" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K39" s="7"/>
+    </row>
+    <row r="40" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C40" s="1"/>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
+      <c r="G40" s="1"/>
+      <c r="J40" s="1"/>
+      <c r="K40" s="7"/>
+    </row>
+    <row r="41" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C41" s="1"/>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
+      <c r="G41" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="J41" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="K41" s="7"/>
+    </row>
+    <row r="42" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C42" s="1"/>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
+      <c r="G42" s="1"/>
+      <c r="J42" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="K42" s="7"/>
+    </row>
+    <row r="43" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C43" s="1"/>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
+      <c r="G43" s="1"/>
+      <c r="J43" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="K43" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+      <c r="G44" s="1"/>
+      <c r="K44" s="7"/>
+    </row>
+    <row r="45" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+      <c r="G45" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="J45" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="K45" s="7"/>
+    </row>
+    <row r="46" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C46" s="1"/>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
+      <c r="G46" s="1"/>
+      <c r="J46" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="K46" s="7"/>
+    </row>
+    <row r="47" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C47" s="1"/>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
+      <c r="G47" s="1"/>
+      <c r="J47" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K47" s="7"/>
+    </row>
+    <row r="48" spans="3:15" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C48" s="1"/>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
+      <c r="G48" s="1"/>
+      <c r="J48" s="1"/>
+      <c r="K48" s="7"/>
+    </row>
+    <row r="49" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C49" s="1"/>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
+      <c r="G49" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H49" s="1">
+        <v>30021</v>
+      </c>
+      <c r="I49" s="1">
+        <v>28</v>
+      </c>
+      <c r="J49" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="K49" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="50" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C50" s="1"/>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
+      <c r="G50" s="1"/>
+      <c r="J50" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K50" s="7"/>
+    </row>
+    <row r="51" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C51" s="1"/>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
+      <c r="G51" s="1"/>
+      <c r="J51" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="K51" s="7"/>
+    </row>
+    <row r="52" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C52" s="1"/>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
+      <c r="G52" s="1"/>
+      <c r="J52" s="1"/>
+      <c r="K52" s="7"/>
+    </row>
+    <row r="53" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C53" s="1"/>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
+      <c r="J53" s="1"/>
+      <c r="K53" s="7"/>
+    </row>
+    <row r="54" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K55" s="6"/>
+    </row>
+    <row r="56" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K56" s="6"/>
+    </row>
+    <row r="57" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="K58" s="6"/>
+    </row>
+    <row r="59" spans="3:11" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C60" s="1"/>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
+      <c r="J60" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="61" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C61" s="1"/>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
+    </row>
+    <row r="62" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C62" s="1"/>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
+    </row>
+    <row r="63" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C63" s="1"/>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
+    </row>
+    <row r="64" spans="3:11" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C64" s="1"/>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
+    </row>
+    <row r="65" spans="3:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C65" s="1"/>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
+    </row>
+    <row r="66" spans="3:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C66" s="1"/>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
+    </row>
+    <row r="67" spans="3:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C67" s="1"/>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+    </row>
+    <row r="68" spans="3:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C68" s="1"/>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
+    </row>
+    <row r="69" spans="3:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C69" s="1"/>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
+    </row>
+    <row r="70" spans="3:5" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/GameDesign/天赋设计.xlsx
+++ b/GameDesign/天赋设计.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE3954DB-7C69-450A-B289-31DF3D62F62B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69801EE-DD0F-41C2-B7C5-3C279B95C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -827,8 +827,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:Q106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C55" workbookViewId="0">
-      <selection activeCell="I75" sqref="I75"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -1564,6 +1564,9 @@
       <c r="M47" s="7"/>
     </row>
     <row r="48" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F48" s="3">
+        <v>3</v>
+      </c>
       <c r="I48" s="3" t="s">
         <v>83</v>
       </c>
@@ -1579,6 +1582,9 @@
       <c r="M48" s="4"/>
     </row>
     <row r="49" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F49" s="1">
+        <v>1</v>
+      </c>
       <c r="I49" s="3"/>
       <c r="J49" s="3"/>
       <c r="K49" s="3"/>
@@ -1588,6 +1594,9 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
+      <c r="F50" s="1">
+        <v>3</v>
+      </c>
       <c r="I50" s="1" t="s">
         <v>84</v>
       </c>
@@ -1603,6 +1612,9 @@
       <c r="M50" s="7"/>
     </row>
     <row r="51" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F51" s="1">
+        <v>1</v>
+      </c>
       <c r="I51" s="1" t="s">
         <v>85</v>
       </c>
@@ -1618,6 +1630,9 @@
       <c r="M51" s="6"/>
     </row>
     <row r="52" spans="3:13" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="F52" s="1">
+        <v>3</v>
+      </c>
       <c r="I52" s="1" t="s">
         <v>86</v>
       </c>
@@ -1636,6 +1651,9 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
+      <c r="F53" s="1">
+        <v>3</v>
+      </c>
       <c r="I53" s="1"/>
       <c r="J53" s="1"/>
       <c r="K53" s="1"/>
@@ -1646,6 +1664,9 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
+      <c r="F54" s="1">
+        <v>1</v>
+      </c>
       <c r="I54" s="1" t="s">
         <v>87</v>
       </c>
@@ -1664,6 +1685,9 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
+      <c r="F55" s="1">
+        <v>5</v>
+      </c>
       <c r="I55" s="1" t="s">
         <v>88</v>
       </c>
@@ -1682,6 +1706,9 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
+      <c r="F56" s="1">
+        <v>1</v>
+      </c>
       <c r="I56" s="1"/>
       <c r="J56" s="1"/>
       <c r="K56" s="1"/>
@@ -1692,6 +1719,9 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
+      <c r="F57" s="1">
+        <v>5</v>
+      </c>
       <c r="I57" s="1" t="s">
         <v>89</v>
       </c>
@@ -1710,6 +1740,9 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
+      <c r="F58" s="1">
+        <v>1</v>
+      </c>
       <c r="I58" s="1" t="s">
         <v>90</v>
       </c>
@@ -1728,6 +1761,9 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
+      <c r="F59" s="1">
+        <v>5</v>
+      </c>
       <c r="I59" s="1" t="s">
         <v>92</v>
       </c>
@@ -1746,6 +1782,9 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
+      <c r="F60" s="1">
+        <v>5</v>
+      </c>
       <c r="I60" s="1" t="s">
         <v>93</v>
       </c>
@@ -1764,6 +1803,9 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
+      <c r="F61" s="1">
+        <v>1</v>
+      </c>
       <c r="I61" s="1" t="s">
         <v>94</v>
       </c>
@@ -1782,6 +1824,9 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
+      <c r="F62" s="1">
+        <v>5</v>
+      </c>
       <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1"/>
@@ -1792,6 +1837,9 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
+      <c r="F63" s="1">
+        <v>1</v>
+      </c>
       <c r="I63" s="1" t="s">
         <v>95</v>
       </c>
@@ -1809,6 +1857,9 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
+      <c r="F64" s="1">
+        <v>5</v>
+      </c>
       <c r="I64" s="1" t="s">
         <v>96</v>
       </c>
@@ -1827,6 +1878,9 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
+      <c r="F65" s="1">
+        <v>1</v>
+      </c>
       <c r="I65" s="1"/>
       <c r="J65" s="1"/>
       <c r="K65" s="1"/>
@@ -1835,6 +1889,9 @@
       <c r="C66" s="1"/>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
+      <c r="F66" s="1">
+        <v>5</v>
+      </c>
       <c r="I66" s="1" t="s">
         <v>97</v>
       </c>
@@ -1852,6 +1909,9 @@
       <c r="C67" s="1"/>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
+      <c r="F67" s="1">
+        <v>1</v>
+      </c>
       <c r="I67" s="1" t="s">
         <v>98</v>
       </c>
@@ -1869,6 +1929,9 @@
       <c r="C68" s="1"/>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
+      <c r="F68" s="3">
+        <v>5</v>
+      </c>
       <c r="I68" s="1" t="s">
         <v>99</v>
       </c>
@@ -1923,6 +1986,7 @@
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
+      <c r="F71" s="1"/>
       <c r="I71" s="1"/>
       <c r="J71" s="1"/>
       <c r="K71" s="1"/>

--- a/GameDesign/天赋设计.xlsx
+++ b/GameDesign/天赋设计.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28623"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\GitMengJing\GameDesign\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D69801EE-DD0F-41C2-B7C5-3C279B95C1F2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93D0BF02-B07F-4E78-9224-07922DF00841}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="145">
   <si>
     <t>战士</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -437,6 +437,166 @@
   </si>
   <si>
     <t>旋风之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冲击技能冷却时间缩减2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冲击伤害提升30%/60%/100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>冰封冲击使目标造成1秒眩晕</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰飞弹伤害提升30%,60%,100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰飞弹使目标防御和魔御降低10%/20%/30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击有10%概率触发破冰飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击上限永久提升1%/2%/3%/4%/5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到攻击有10%概率对目标释放圣御之击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻使目标移动速度降低30%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>每次暴击有30%概率对目标附加伤害加深状态,使其受到伤害增加25%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击目标有10%概率提升自身25%伤害,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害提升2%/4%/6%/8%/10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御之击冷却时间降低1秒,并使目标移动速度降低50%,持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击概率提升1%/2%/3%/4%/5%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害有5%概率给自己释放一个护盾,护盾可以抵抗50%伤害,最大承受生命的30%,持续20秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨岩震击伤害提升20%/40%/60%/80%100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御之击伤害提升20%/40%/60%/80%100%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通伤害提升3%/6%/9%/12%/15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>巨岩震击有20%/40%/60%/80%/100%概率眩晕目标2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能散射波,连续对前方发射3次攻击波,每次造成200%伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新增技能熔岩爆裂,对目标造成350%伤害,并使目标眩晕2秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度提升2%/4%/6%/8%/10%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动减速</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>飞弹伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>抗性降低</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>暴击加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>重击之力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普攻飞弹</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害提升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击加深</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御冷却</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能上升</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圣御反击</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>魔法护盾</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移动速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>熔岩爆裂</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -825,10 +985,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:Q106"/>
+  <dimension ref="B1:R106"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="J16" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -839,14 +999,15 @@
     <col min="11" max="11" width="18.875" customWidth="1"/>
     <col min="12" max="12" width="83.125" customWidth="1"/>
     <col min="13" max="13" width="24.125" customWidth="1"/>
+    <col min="18" max="18" width="60.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
@@ -854,12 +1015,12 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
     </row>
-    <row r="4" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>1</v>
       </c>
@@ -891,7 +1052,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C5" s="1"/>
       <c r="D5" s="1" t="s">
         <v>3</v>
@@ -923,7 +1084,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
       <c r="D6" s="1" t="s">
         <v>3</v>
@@ -952,7 +1113,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
       <c r="D7" s="1" t="s">
         <v>4</v>
@@ -978,7 +1139,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -990,14 +1151,20 @@
       </c>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-    </row>
-    <row r="9" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R8" s="6" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M9" s="6"/>
-    </row>
-    <row r="10" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="R9" s="6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="M10" s="6"/>
     </row>
-    <row r="11" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I11" s="3" t="s">
         <v>34</v>
       </c>
@@ -1013,14 +1180,30 @@
       <c r="M11" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="12" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O11" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="P11" s="3">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="3">
+        <v>3</v>
+      </c>
+      <c r="R11" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="M12" s="4"/>
-    </row>
-    <row r="13" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="6"/>
+    </row>
+    <row r="13" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1037,8 +1220,20 @@
         <v>31</v>
       </c>
       <c r="M13" s="7"/>
-    </row>
-    <row r="14" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O13" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>1</v>
+      </c>
+      <c r="R13" s="6" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I14" s="1" t="s">
         <v>48</v>
       </c>
@@ -1052,8 +1247,20 @@
         <v>22</v>
       </c>
       <c r="M14" s="6"/>
-    </row>
-    <row r="15" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O14" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>3</v>
+      </c>
+      <c r="R14" s="6" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="I15" s="1" t="s">
         <v>49</v>
       </c>
@@ -1067,8 +1274,20 @@
         <v>35</v>
       </c>
       <c r="M15" s="6"/>
-    </row>
-    <row r="16" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O15" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="P15" s="1">
+        <v>2</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>1</v>
+      </c>
+      <c r="R15" s="6" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
@@ -1077,8 +1296,12 @@
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="7"/>
-    </row>
-    <row r="17" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O16" s="1"/>
+      <c r="P16" s="1"/>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="6"/>
+    </row>
+    <row r="17" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -1095,8 +1318,20 @@
         <v>18</v>
       </c>
       <c r="M17" s="7"/>
-    </row>
-    <row r="18" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O17" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="P17" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>3</v>
+      </c>
+      <c r="R17" s="6" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="18" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
@@ -1113,8 +1348,20 @@
         <v>36</v>
       </c>
       <c r="M18" s="7"/>
-    </row>
-    <row r="19" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O18" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="P18" s="1">
+        <v>3</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>3</v>
+      </c>
+      <c r="R18" s="6" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="19" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
@@ -1122,8 +1369,12 @@
       <c r="J19" s="1"/>
       <c r="K19" s="1"/>
       <c r="M19" s="7"/>
-    </row>
-    <row r="20" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="7"/>
+    </row>
+    <row r="20" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
@@ -1140,8 +1391,20 @@
         <v>38</v>
       </c>
       <c r="M20" s="7"/>
-    </row>
-    <row r="21" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O20" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="P20" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>1</v>
+      </c>
+      <c r="R20" s="6" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="21" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1158,8 +1421,20 @@
         <v>40</v>
       </c>
       <c r="M21" s="7"/>
-    </row>
-    <row r="22" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O21" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="P21" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>5</v>
+      </c>
+      <c r="R21" s="6" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="22" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
@@ -1176,8 +1451,20 @@
         <v>23</v>
       </c>
       <c r="M22" s="7"/>
-    </row>
-    <row r="23" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O22" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="P22" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>1</v>
+      </c>
+      <c r="R22" s="6" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="23" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
@@ -1194,8 +1481,20 @@
         <v>39</v>
       </c>
       <c r="M23" s="7"/>
-    </row>
-    <row r="24" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O23" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="P23" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>5</v>
+      </c>
+      <c r="R23" s="6" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="24" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
@@ -1214,8 +1513,20 @@
       <c r="M24" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="25" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O24" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>1</v>
+      </c>
+      <c r="R24" s="6" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="25" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
@@ -1224,8 +1535,11 @@
       <c r="K25" s="1"/>
       <c r="L25" s="1"/>
       <c r="M25" s="7"/>
-    </row>
-    <row r="26" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+    </row>
+    <row r="26" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
@@ -1241,8 +1555,20 @@
       <c r="L26" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="27" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O26" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="P26" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>5</v>
+      </c>
+      <c r="R26" s="6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="27" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
@@ -1259,16 +1585,32 @@
         <v>43</v>
       </c>
       <c r="M27" s="7"/>
-    </row>
-    <row r="28" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O27" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" s="1">
+        <v>5</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>5</v>
+      </c>
+      <c r="R27" s="6" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="28" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
       <c r="K28" s="1"/>
-    </row>
-    <row r="29" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O28" s="1"/>
+      <c r="P28" s="1"/>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="7"/>
+    </row>
+    <row r="29" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
@@ -1284,8 +1626,20 @@
       <c r="L29" s="1" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="30" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O29" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="P29" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1</v>
+      </c>
+      <c r="R29" s="6" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="30" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
@@ -1301,8 +1655,20 @@
       <c r="L30" s="1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="31" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O30" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="P30" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>5</v>
+      </c>
+      <c r="R30" s="6" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -1321,8 +1687,20 @@
       <c r="M31" s="9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="32" spans="3:13" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O31" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="P31" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>1</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="32" spans="3:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -1339,8 +1717,20 @@
         <v>42</v>
       </c>
       <c r="M32" s="10"/>
-    </row>
-    <row r="33" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O32" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P32" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>5</v>
+      </c>
+      <c r="R32" s="6" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="33" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -1357,8 +1747,20 @@
         <v>37</v>
       </c>
       <c r="M33" s="10"/>
-    </row>
-    <row r="34" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O33" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="P33" s="1">
+        <v>6</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>1</v>
+      </c>
+      <c r="R33" s="6" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="34" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
@@ -1366,8 +1768,11 @@
       <c r="J34" s="1"/>
       <c r="K34" s="1"/>
       <c r="M34" s="7"/>
-    </row>
-    <row r="35" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O34" s="1"/>
+      <c r="P34" s="1"/>
+      <c r="Q34" s="1"/>
+    </row>
+    <row r="35" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1384,8 +1789,20 @@
         <v>45</v>
       </c>
       <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O35" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="P35" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>5</v>
+      </c>
+      <c r="R35" s="6" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="36" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
@@ -1402,8 +1819,20 @@
         <v>30</v>
       </c>
       <c r="M36" s="4"/>
-    </row>
-    <row r="37" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O36" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="P36" s="1">
+        <v>7</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>1</v>
+      </c>
+      <c r="R36" s="6" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="37" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -1420,22 +1849,34 @@
         <v>46</v>
       </c>
       <c r="M37" s="4"/>
-    </row>
-    <row r="38" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="O37" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="P37" s="3">
+        <v>7</v>
+      </c>
+      <c r="Q37" s="3">
+        <v>5</v>
+      </c>
+      <c r="R37" s="6" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="38" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="L38" s="1"/>
       <c r="M38" s="7"/>
     </row>
-    <row r="39" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="L39" s="1"/>
       <c r="M39" s="7"/>
     </row>
-    <row r="40" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="2" t="s">
         <v>1</v>
       </c>
@@ -1459,7 +1900,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="41" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C41" s="1"/>
       <c r="D41" s="1" t="s">
         <v>3</v>
@@ -1483,7 +1924,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="42" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
         <v>3</v>
@@ -1507,7 +1948,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="43" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C43" s="1"/>
       <c r="D43" s="1" t="s">
         <v>4</v>
@@ -1528,7 +1969,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="2:17" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="2:18" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
@@ -1541,14 +1982,14 @@
       <c r="I44" s="1"/>
       <c r="J44" s="1"/>
     </row>
-    <row r="45" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="L45" s="1"/>
       <c r="M45" s="7"/>
     </row>
-    <row r="46" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
@@ -1556,14 +1997,14 @@
       <c r="L46" s="1"/>
       <c r="M46" s="7"/>
     </row>
-    <row r="47" spans="2:17" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="2:18" s="5" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="L47" s="1"/>
       <c r="M47" s="7"/>
     </row>
-    <row r="48" spans="2:17" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="2:18" s="1" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F48" s="3">
         <v>3</v>
       </c>
